--- a/sentence_level/data/sentences/remove_single/2012_hurricane_isaac_tornado.xlsx
+++ b/sentence_level/data/sentences/remove_single/2012_hurricane_isaac_tornado.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="573">
   <si>
     <t>2012_hurricane_isaac_tornado</t>
   </si>
@@ -722,9 +722,6 @@
     <t>Belle Chasse</t>
   </si>
   <si>
-    <t>Tyrone Anderson is accused of stealing computers valued at $2,500 from a construction company in Belle Chasse.</t>
-  </si>
-  <si>
     <t>Some reservists were able to serve because they were already on orders, but Visot, who helped lead disaster relief efforts after Haiti's devastating 2010 earthquake, said thousands of others at idled nearby at Belle Chasse, La., because of the legal limitations.</t>
   </si>
   <si>
@@ -1184,7 +1181,7 @@
     <t>By late Thursday, the Percy Quin State Park dam, located about 100 miles north of New Orleans, was no longer an imminent threat, dam safety engineer Dusty Myers said.</t>
   </si>
   <si>
-    <t>Related: Blessing and curse for drought areas due to Isaac  Related: Resident reports on how post-Katrina defenses saved town  Related: Stories from the storm: 'They were screaming away'  Related: Isaac stirs up horrible memories for New Orleans residents  Isaac arrived seven years after Hurricane Katrina and passed slightly to the west of New Orleans, where the city's fortified levee system easily handled the assault.</t>
+    <t> Isaac arrived seven years after Hurricane Katrina and passed slightly to the west of New Orleans, where the city's fortified levee system easily handled the assault.</t>
   </si>
   <si>
     <t>New Orleans set a daily record of 7.86 inches of rain on Wednesday, The Weather Channel reported, breaking the previous record for an August 29 -- 4.5 inches set by Katrina in 2005.</t>
@@ -1443,15 +1440,6 @@
   </si>
   <si>
     <t>Livingston Parish officials told ABC News that they felt the worst of Isaac at 10 p.m. Wednesday, and expect flooding in the low-lying parts of the parish.</t>
-  </si>
-  <si>
-    <t>Severn Ave.</t>
-  </si>
-  <si>
-    <t>The stem of one of the flower-like steel abstractions, located at the corner of Veterans Memorial Blvd. and Severn Ave., was bent near the ground at a 90 degree angle.</t>
-  </si>
-  <si>
-    <t>George Rodrigue's three-colored dog sculpture near Severn Ave. survived the storm without apparent damage.</t>
   </si>
   <si>
     <t>White House</t>
@@ -1843,13 +1831,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D674"/>
+  <dimension ref="A1:D666"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A214" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H226" activeCellId="0" sqref="H226"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A641" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C660" activeCellId="0" sqref="C660"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
   </cols>
@@ -2075,7 +2063,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4105,7 +4093,7 @@
         <v>175</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5154,6 +5142,9 @@
       <c r="C236" s="0" t="s">
         <v>226</v>
       </c>
+      <c r="D236" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
@@ -5165,6 +5156,9 @@
       <c r="C237" s="0" t="s">
         <v>227</v>
       </c>
+      <c r="D237" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
@@ -5176,6 +5170,9 @@
       <c r="C238" s="0" t="s">
         <v>228</v>
       </c>
+      <c r="D238" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
@@ -5187,6 +5184,9 @@
       <c r="C239" s="0" t="s">
         <v>229</v>
       </c>
+      <c r="D239" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
@@ -5198,6 +5198,9 @@
       <c r="C240" s="0" t="s">
         <v>230</v>
       </c>
+      <c r="D240" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
@@ -5209,6 +5212,9 @@
       <c r="C241" s="0" t="s">
         <v>232</v>
       </c>
+      <c r="D241" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
@@ -5220,6 +5226,9 @@
       <c r="C242" s="0" t="s">
         <v>233</v>
       </c>
+      <c r="D242" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
@@ -5229,7 +5238,10 @@
         <v>234</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>235</v>
+        <v>217</v>
+      </c>
+      <c r="D243" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5240,10 +5252,10 @@
         <v>234</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="D244" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5251,10 +5263,13 @@
         <v>0</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="D245" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5262,21 +5277,27 @@
         <v>0</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C246" s="0" t="s">
         <v>238</v>
       </c>
+      <c r="D246" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>239</v>
+        <v>20</v>
+      </c>
+      <c r="D247" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5284,10 +5305,13 @@
         <v>0</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>20</v>
+        <v>239</v>
+      </c>
+      <c r="D248" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5295,10 +5319,13 @@
         <v>0</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="D249" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5306,10 +5333,13 @@
         <v>0</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>242</v>
+        <v>21</v>
+      </c>
+      <c r="D250" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5317,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>21</v>
+        <v>243</v>
       </c>
       <c r="D251" s="0" t="n">
         <v>1</v>
@@ -5331,21 +5361,27 @@
         <v>0</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C252" s="0" t="s">
         <v>244</v>
       </c>
+      <c r="D252" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>245</v>
+        <v>131</v>
+      </c>
+      <c r="D253" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5353,10 +5389,13 @@
         <v>0</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>245</v>
+        <v>132</v>
+      </c>
+      <c r="D254" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5364,10 +5403,13 @@
         <v>0</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>131</v>
+        <v>63</v>
+      </c>
+      <c r="D255" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5375,10 +5417,13 @@
         <v>0</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="D256" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5389,10 +5434,10 @@
         <v>246</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>63</v>
+        <v>247</v>
       </c>
       <c r="D257" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5403,7 +5448,10 @@
         <v>246</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>133</v>
+        <v>248</v>
+      </c>
+      <c r="D258" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5411,10 +5459,13 @@
         <v>0</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>248</v>
+        <v>146</v>
+      </c>
+      <c r="D259" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5422,10 +5473,13 @@
         <v>0</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
+      </c>
+      <c r="D260" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5433,13 +5487,13 @@
         <v>0</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="D261" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5447,10 +5501,13 @@
         <v>0</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>251</v>
+        <v>87</v>
+      </c>
+      <c r="D262" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5458,10 +5515,13 @@
         <v>0</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>252</v>
+        <v>77</v>
+      </c>
+      <c r="D263" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5472,7 +5532,10 @@
         <v>253</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>87</v>
+        <v>254</v>
+      </c>
+      <c r="D264" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5483,7 +5546,10 @@
         <v>253</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>77</v>
+        <v>255</v>
+      </c>
+      <c r="D265" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5491,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>255</v>
+        <v>2</v>
       </c>
       <c r="D266" s="0" t="n">
         <v>0</v>
@@ -5505,10 +5571,10 @@
         <v>0</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D267" s="0" t="n">
         <v>0</v>
@@ -5519,13 +5585,13 @@
         <v>0</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="D268" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5533,10 +5599,13 @@
         <v>0</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="D269" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5544,10 +5613,13 @@
         <v>0</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>135</v>
+        <v>247</v>
+      </c>
+      <c r="D270" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5555,10 +5627,13 @@
         <v>0</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="D271" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5566,10 +5641,13 @@
         <v>0</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>248</v>
+        <v>262</v>
+      </c>
+      <c r="D272" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5577,10 +5655,13 @@
         <v>0</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
+      </c>
+      <c r="D273" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5588,10 +5669,13 @@
         <v>0</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="D274" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5599,10 +5683,13 @@
         <v>0</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="D275" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5610,10 +5697,13 @@
         <v>0</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="D276" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5621,10 +5711,13 @@
         <v>0</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
+      </c>
+      <c r="D277" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5632,10 +5725,13 @@
         <v>0</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
+      </c>
+      <c r="D278" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5643,10 +5739,13 @@
         <v>0</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
+      </c>
+      <c r="D279" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5654,10 +5753,13 @@
         <v>0</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="D280" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5665,10 +5767,13 @@
         <v>0</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="D281" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5676,10 +5781,13 @@
         <v>0</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
+      </c>
+      <c r="D282" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5687,10 +5795,13 @@
         <v>0</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
+      </c>
+      <c r="D283" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5698,10 +5809,13 @@
         <v>0</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
+      </c>
+      <c r="D284" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5709,10 +5823,13 @@
         <v>0</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
+      </c>
+      <c r="D285" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5720,10 +5837,13 @@
         <v>0</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
+      </c>
+      <c r="D286" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5731,10 +5851,13 @@
         <v>0</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
+      </c>
+      <c r="D287" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5742,10 +5865,13 @@
         <v>0</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+      <c r="D288" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5753,10 +5879,13 @@
         <v>0</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>285</v>
+        <v>171</v>
+      </c>
+      <c r="D289" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5764,21 +5893,24 @@
         <v>0</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C290" s="0" t="s">
         <v>286</v>
       </c>
+      <c r="D290" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>171</v>
+        <v>287</v>
       </c>
       <c r="D291" s="0" t="n">
         <v>1</v>
@@ -5789,10 +5921,13 @@
         <v>0</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>287</v>
+        <v>174</v>
+      </c>
+      <c r="D292" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5800,10 +5935,13 @@
         <v>0</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>288</v>
+        <v>151</v>
+      </c>
+      <c r="D293" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5811,10 +5949,13 @@
         <v>0</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>174</v>
+        <v>288</v>
+      </c>
+      <c r="D294" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,10 +5963,10 @@
         <v>0</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>151</v>
+        <v>289</v>
       </c>
       <c r="D295" s="0" t="n">
         <v>1</v>
@@ -5836,10 +5977,13 @@
         <v>0</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>289</v>
+        <v>190</v>
+      </c>
+      <c r="D296" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5847,21 +5991,24 @@
         <v>0</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C297" s="0" t="s">
         <v>290</v>
       </c>
+      <c r="D297" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>190</v>
+        <v>291</v>
       </c>
       <c r="D298" s="0" t="n">
         <v>0</v>
@@ -5872,10 +6019,13 @@
         <v>0</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="D299" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5883,10 +6033,13 @@
         <v>0</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>292</v>
+        <v>48</v>
+      </c>
+      <c r="D300" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5894,10 +6047,13 @@
         <v>0</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>293</v>
+        <v>169</v>
+      </c>
+      <c r="D301" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5905,10 +6061,10 @@
         <v>0</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="D302" s="0" t="n">
         <v>1</v>
@@ -5922,7 +6078,10 @@
         <v>294</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
+      </c>
+      <c r="D303" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5933,7 +6092,10 @@
         <v>294</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>172</v>
+        <v>121</v>
+      </c>
+      <c r="D304" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5944,7 +6106,7 @@
         <v>295</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="D305" s="0" t="n">
         <v>0</v>
@@ -5958,7 +6120,10 @@
         <v>295</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>121</v>
+        <v>63</v>
+      </c>
+      <c r="D306" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5966,10 +6131,10 @@
         <v>0</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D307" s="0" t="n">
         <v>0</v>
@@ -5983,7 +6148,7 @@
         <v>296</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D308" s="0" t="n">
         <v>0</v>
@@ -5997,7 +6162,10 @@
         <v>296</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>66</v>
+        <v>297</v>
+      </c>
+      <c r="D309" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6005,10 +6173,13 @@
         <v>0</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>97</v>
+        <v>241</v>
+      </c>
+      <c r="D310" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6016,10 +6187,13 @@
         <v>0</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+      <c r="D311" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6027,10 +6201,13 @@
         <v>0</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>242</v>
+        <v>301</v>
+      </c>
+      <c r="D312" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6038,10 +6215,13 @@
         <v>0</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
+      </c>
+      <c r="D313" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6049,10 +6229,13 @@
         <v>0</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
+      </c>
+      <c r="D314" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6060,10 +6243,13 @@
         <v>0</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
+      </c>
+      <c r="D315" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6071,10 +6257,13 @@
         <v>0</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>304</v>
+        <v>233</v>
+      </c>
+      <c r="D316" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6082,21 +6271,27 @@
         <v>0</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C317" s="0" t="s">
         <v>306</v>
       </c>
+      <c r="D317" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>233</v>
+        <v>307</v>
+      </c>
+      <c r="D318" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6104,10 +6299,13 @@
         <v>0</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
+      </c>
+      <c r="D319" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6115,10 +6313,13 @@
         <v>0</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
+      </c>
+      <c r="D320" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6126,10 +6327,13 @@
         <v>0</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>309</v>
+        <v>101</v>
+      </c>
+      <c r="D321" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6137,21 +6341,27 @@
         <v>0</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C322" s="0" t="s">
         <v>311</v>
       </c>
+      <c r="D322" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
+      </c>
+      <c r="D323" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6159,10 +6369,13 @@
         <v>0</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>101</v>
+        <v>314</v>
+      </c>
+      <c r="D324" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6170,10 +6383,13 @@
         <v>0</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>312</v>
+        <v>22</v>
+      </c>
+      <c r="D325" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6181,10 +6397,13 @@
         <v>0</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>314</v>
+        <v>28</v>
+      </c>
+      <c r="D326" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6192,21 +6411,27 @@
         <v>0</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C327" s="0" t="s">
         <v>315</v>
       </c>
+      <c r="D327" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>315</v>
+        <v>38</v>
+      </c>
+      <c r="D328" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6214,10 +6439,10 @@
         <v>0</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D329" s="0" t="n">
         <v>0</v>
@@ -6228,10 +6453,10 @@
         <v>0</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="D330" s="0" t="n">
         <v>1</v>
@@ -6242,10 +6467,13 @@
         <v>0</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>316</v>
+        <v>216</v>
+      </c>
+      <c r="D331" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6253,10 +6481,10 @@
         <v>0</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>38</v>
+        <v>316</v>
       </c>
       <c r="D332" s="0" t="n">
         <v>0</v>
@@ -6267,13 +6495,13 @@
         <v>0</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D333" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6281,10 +6509,10 @@
         <v>0</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>215</v>
+        <v>70</v>
       </c>
       <c r="D334" s="0" t="n">
         <v>1</v>
@@ -6295,13 +6523,13 @@
         <v>0</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>216</v>
+        <v>11</v>
       </c>
       <c r="D335" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6309,10 +6537,13 @@
         <v>0</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
+      </c>
+      <c r="D336" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6320,13 +6551,13 @@
         <v>0</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
       <c r="D337" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6334,13 +6565,13 @@
         <v>0</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>70</v>
+        <v>320</v>
       </c>
       <c r="D338" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6348,10 +6579,10 @@
         <v>0</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>11</v>
+        <v>321</v>
       </c>
       <c r="D339" s="0" t="n">
         <v>0</v>
@@ -6362,10 +6593,10 @@
         <v>0</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D340" s="0" t="n">
         <v>0</v>
@@ -6376,10 +6607,10 @@
         <v>0</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D341" s="0" t="n">
         <v>0</v>
@@ -6390,10 +6621,10 @@
         <v>0</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D342" s="0" t="n">
         <v>0</v>
@@ -6404,10 +6635,10 @@
         <v>0</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D343" s="0" t="n">
         <v>0</v>
@@ -6418,10 +6649,10 @@
         <v>0</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D344" s="0" t="n">
         <v>0</v>
@@ -6432,13 +6663,13 @@
         <v>0</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="D345" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6446,10 +6677,13 @@
         <v>0</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
+      </c>
+      <c r="D346" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6457,10 +6691,13 @@
         <v>0</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
+      </c>
+      <c r="D347" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6468,10 +6705,13 @@
         <v>0</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
+      </c>
+      <c r="D348" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6479,10 +6719,10 @@
         <v>0</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>25</v>
+        <v>331</v>
       </c>
       <c r="D349" s="0" t="n">
         <v>1</v>
@@ -6493,10 +6733,13 @@
         <v>0</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
+      </c>
+      <c r="D350" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6504,10 +6747,13 @@
         <v>0</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
+      </c>
+      <c r="D351" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6515,10 +6761,13 @@
         <v>0</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>331</v>
+        <v>335</v>
+      </c>
+      <c r="D352" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6526,10 +6775,13 @@
         <v>0</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>332</v>
+        <v>14</v>
+      </c>
+      <c r="D353" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6537,10 +6789,13 @@
         <v>0</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
+      </c>
+      <c r="D354" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6548,10 +6803,13 @@
         <v>0</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
+      </c>
+      <c r="D355" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6559,10 +6817,13 @@
         <v>0</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
+      </c>
+      <c r="D356" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6570,10 +6831,13 @@
         <v>0</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>14</v>
+        <v>53</v>
+      </c>
+      <c r="D357" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6581,13 +6845,13 @@
         <v>0</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D358" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6595,10 +6859,10 @@
         <v>0</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D359" s="0" t="n">
         <v>0</v>
@@ -6609,10 +6873,10 @@
         <v>0</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D360" s="0" t="n">
         <v>0</v>
@@ -6623,13 +6887,13 @@
         <v>0</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>53</v>
+        <v>344</v>
       </c>
       <c r="D361" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6637,10 +6901,13 @@
         <v>0</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
+      </c>
+      <c r="D362" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6648,10 +6915,13 @@
         <v>0</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>343</v>
+        <v>214</v>
+      </c>
+      <c r="D363" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6659,10 +6929,13 @@
         <v>0</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>344</v>
+        <v>49</v>
+      </c>
+      <c r="D364" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6670,10 +6943,13 @@
         <v>0</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
+      </c>
+      <c r="D365" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6681,10 +6957,13 @@
         <v>0</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
+      </c>
+      <c r="D366" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6692,10 +6971,13 @@
         <v>0</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>214</v>
+        <v>349</v>
+      </c>
+      <c r="D367" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6703,13 +6985,13 @@
         <v>0</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>49</v>
+        <v>280</v>
       </c>
       <c r="D368" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6717,10 +6999,13 @@
         <v>0</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
+      </c>
+      <c r="D369" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6728,10 +7013,13 @@
         <v>0</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>348</v>
+        <v>352</v>
+      </c>
+      <c r="D370" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6739,10 +7027,13 @@
         <v>0</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
+      </c>
+      <c r="D371" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6750,10 +7041,13 @@
         <v>0</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>281</v>
+        <v>53</v>
+      </c>
+      <c r="D372" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6761,10 +7055,13 @@
         <v>0</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
+      </c>
+      <c r="D373" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6772,10 +7069,13 @@
         <v>0</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
+      </c>
+      <c r="D374" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6783,10 +7083,13 @@
         <v>0</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
+      </c>
+      <c r="D375" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6794,10 +7097,10 @@
         <v>0</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>53</v>
+        <v>232</v>
       </c>
       <c r="D376" s="0" t="n">
         <v>1</v>
@@ -6808,10 +7111,13 @@
         <v>0</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>355</v>
+        <v>359</v>
+      </c>
+      <c r="D377" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6819,10 +7125,13 @@
         <v>0</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>357</v>
+        <v>181</v>
+      </c>
+      <c r="D378" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6830,10 +7139,13 @@
         <v>0</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>358</v>
+        <v>51</v>
+      </c>
+      <c r="D379" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6841,10 +7153,13 @@
         <v>0</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>232</v>
+        <v>308</v>
+      </c>
+      <c r="D380" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6852,10 +7167,13 @@
         <v>0</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>360</v>
+        <v>219</v>
+      </c>
+      <c r="D381" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6863,13 +7181,13 @@
         <v>0</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D382" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6877,13 +7195,13 @@
         <v>0</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>51</v>
+        <v>261</v>
       </c>
       <c r="D383" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6891,10 +7209,13 @@
         <v>0</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>309</v>
+        <v>262</v>
+      </c>
+      <c r="D384" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6902,10 +7223,13 @@
         <v>0</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>219</v>
+        <v>280</v>
+      </c>
+      <c r="D385" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6913,13 +7237,13 @@
         <v>0</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>163</v>
+        <v>362</v>
       </c>
       <c r="D386" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6930,7 +7254,10 @@
         <v>361</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>262</v>
+        <v>363</v>
+      </c>
+      <c r="D387" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6938,10 +7265,13 @@
         <v>0</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>263</v>
+        <v>177</v>
+      </c>
+      <c r="D388" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6949,10 +7279,13 @@
         <v>0</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>281</v>
+        <v>365</v>
+      </c>
+      <c r="D389" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6960,10 +7293,13 @@
         <v>0</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>363</v>
+        <v>153</v>
+      </c>
+      <c r="D390" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6971,10 +7307,13 @@
         <v>0</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>364</v>
+        <v>109</v>
+      </c>
+      <c r="D391" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6982,13 +7321,13 @@
         <v>0</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="D392" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6996,10 +7335,13 @@
         <v>0</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>366</v>
+        <v>69</v>
+      </c>
+      <c r="D393" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7007,10 +7349,10 @@
         <v>0</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>153</v>
+        <v>368</v>
       </c>
       <c r="D394" s="0" t="n">
         <v>1</v>
@@ -7021,10 +7363,13 @@
         <v>0</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>109</v>
+        <v>369</v>
+      </c>
+      <c r="D395" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7035,7 +7380,10 @@
         <v>367</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>251</v>
+        <v>212</v>
+      </c>
+      <c r="D396" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7046,10 +7394,10 @@
         <v>367</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="D397" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7057,10 +7405,13 @@
         <v>0</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
+      </c>
+      <c r="D398" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7068,10 +7419,13 @@
         <v>0</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
+      </c>
+      <c r="D399" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7079,10 +7433,13 @@
         <v>0</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C400" s="0" t="s">
-        <v>212</v>
+        <v>373</v>
+      </c>
+      <c r="D400" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7090,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C401" s="0" t="s">
-        <v>216</v>
+        <v>374</v>
       </c>
       <c r="D401" s="0" t="n">
         <v>1</v>
@@ -7104,10 +7461,13 @@
         <v>0</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C402" s="0" t="s">
-        <v>371</v>
+        <v>376</v>
+      </c>
+      <c r="D402" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7115,10 +7475,13 @@
         <v>0</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C403" s="0" t="s">
-        <v>372</v>
+        <v>377</v>
+      </c>
+      <c r="D403" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7126,10 +7489,13 @@
         <v>0</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C404" s="0" t="s">
-        <v>374</v>
+        <v>379</v>
+      </c>
+      <c r="D404" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7137,10 +7503,13 @@
         <v>0</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C405" s="0" t="s">
-        <v>375</v>
+        <v>380</v>
+      </c>
+      <c r="D405" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7148,10 +7517,13 @@
         <v>0</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C406" s="0" t="s">
-        <v>377</v>
+        <v>125</v>
+      </c>
+      <c r="D406" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7159,10 +7531,13 @@
         <v>0</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C407" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
+      </c>
+      <c r="D407" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7170,10 +7545,13 @@
         <v>0</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C408" s="0" t="s">
-        <v>380</v>
+        <v>157</v>
+      </c>
+      <c r="D408" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7181,10 +7559,13 @@
         <v>0</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C409" s="0" t="s">
-        <v>381</v>
+        <v>95</v>
+      </c>
+      <c r="D409" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7192,10 +7573,13 @@
         <v>0</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C410" s="0" t="s">
-        <v>125</v>
+        <v>97</v>
+      </c>
+      <c r="D410" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7203,10 +7587,13 @@
         <v>0</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C411" s="0" t="s">
-        <v>383</v>
+        <v>2</v>
+      </c>
+      <c r="D411" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7214,10 +7601,13 @@
         <v>0</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C412" s="0" t="s">
-        <v>157</v>
+        <v>384</v>
+      </c>
+      <c r="D412" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7225,10 +7615,13 @@
         <v>0</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C413" s="0" t="s">
-        <v>95</v>
+        <v>385</v>
+      </c>
+      <c r="D413" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7236,10 +7629,13 @@
         <v>0</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C414" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D414" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7247,10 +7643,10 @@
         <v>0</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C415" s="0" t="s">
-        <v>2</v>
+        <v>386</v>
       </c>
       <c r="D415" s="0" t="n">
         <v>0</v>
@@ -7261,10 +7657,13 @@
         <v>0</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C416" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
+      </c>
+      <c r="D416" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7272,10 +7671,13 @@
         <v>0</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C417" s="0" t="s">
-        <v>386</v>
+        <v>36</v>
+      </c>
+      <c r="D417" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7283,10 +7685,10 @@
         <v>0</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C418" s="0" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="D418" s="0" t="n">
         <v>0</v>
@@ -7297,10 +7699,13 @@
         <v>0</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C419" s="0" t="s">
-        <v>387</v>
+        <v>337</v>
+      </c>
+      <c r="D419" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7308,10 +7713,13 @@
         <v>0</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C420" s="0" t="s">
-        <v>388</v>
+        <v>328</v>
+      </c>
+      <c r="D420" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7319,10 +7727,10 @@
         <v>0</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C421" s="0" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="D421" s="0" t="n">
         <v>0</v>
@@ -7333,10 +7741,13 @@
         <v>0</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C422" s="0" t="s">
-        <v>174</v>
+        <v>388</v>
+      </c>
+      <c r="D422" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7344,10 +7755,13 @@
         <v>0</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C423" s="0" t="s">
-        <v>338</v>
+        <v>389</v>
+      </c>
+      <c r="D423" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7355,10 +7769,13 @@
         <v>0</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C424" s="0" t="s">
-        <v>329</v>
+        <v>390</v>
+      </c>
+      <c r="D424" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7366,10 +7783,13 @@
         <v>0</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C425" s="0" t="s">
-        <v>175</v>
+        <v>391</v>
+      </c>
+      <c r="D425" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7377,10 +7797,13 @@
         <v>0</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C426" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
+      </c>
+      <c r="D426" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7388,10 +7811,13 @@
         <v>0</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C427" s="0" t="s">
-        <v>389</v>
+        <v>393</v>
+      </c>
+      <c r="D427" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7399,10 +7825,13 @@
         <v>0</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C428" s="0" t="s">
-        <v>390</v>
+        <v>394</v>
+      </c>
+      <c r="D428" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7410,10 +7839,13 @@
         <v>0</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C429" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
+      </c>
+      <c r="D429" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7421,10 +7853,13 @@
         <v>0</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C430" s="0" t="s">
-        <v>392</v>
+        <v>396</v>
+      </c>
+      <c r="D430" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7432,10 +7867,13 @@
         <v>0</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C431" s="0" t="s">
-        <v>393</v>
+        <v>330</v>
+      </c>
+      <c r="D431" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7443,10 +7881,13 @@
         <v>0</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C432" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
+      </c>
+      <c r="D432" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7454,10 +7895,13 @@
         <v>0</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C433" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
+      </c>
+      <c r="D433" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7465,10 +7909,13 @@
         <v>0</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C434" s="0" t="s">
-        <v>396</v>
+        <v>152</v>
+      </c>
+      <c r="D434" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7476,10 +7923,13 @@
         <v>0</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C435" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
+      </c>
+      <c r="D435" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7487,10 +7937,13 @@
         <v>0</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C436" s="0" t="s">
-        <v>331</v>
+        <v>400</v>
+      </c>
+      <c r="D436" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7498,10 +7951,13 @@
         <v>0</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C437" s="0" t="s">
-        <v>398</v>
+        <v>217</v>
+      </c>
+      <c r="D437" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7509,10 +7965,13 @@
         <v>0</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C438" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
+      </c>
+      <c r="D438" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7520,13 +7979,13 @@
         <v>0</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C439" s="0" t="s">
-        <v>152</v>
+        <v>402</v>
       </c>
       <c r="D439" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7534,10 +7993,13 @@
         <v>0</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C440" s="0" t="s">
-        <v>400</v>
+        <v>331</v>
+      </c>
+      <c r="D440" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7545,10 +8007,13 @@
         <v>0</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C441" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
+      </c>
+      <c r="D441" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7556,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C442" s="0" t="s">
-        <v>217</v>
+        <v>404</v>
       </c>
       <c r="D442" s="0" t="n">
         <v>0</v>
@@ -7570,10 +8035,13 @@
         <v>0</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C443" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
+      </c>
+      <c r="D443" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7581,10 +8049,13 @@
         <v>0</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C444" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
+      </c>
+      <c r="D444" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7592,10 +8063,13 @@
         <v>0</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C445" s="0" t="s">
-        <v>332</v>
+        <v>76</v>
+      </c>
+      <c r="D445" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7603,10 +8077,13 @@
         <v>0</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C446" s="0" t="s">
-        <v>404</v>
+        <v>67</v>
+      </c>
+      <c r="D446" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7614,10 +8091,13 @@
         <v>0</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C447" s="0" t="s">
-        <v>405</v>
+        <v>153</v>
+      </c>
+      <c r="D447" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7625,10 +8105,13 @@
         <v>0</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C448" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
+      </c>
+      <c r="D448" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7636,10 +8119,13 @@
         <v>0</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C449" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
+      </c>
+      <c r="D449" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7647,10 +8133,13 @@
         <v>0</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="C450" s="0" t="s">
-        <v>76</v>
+        <v>410</v>
+      </c>
+      <c r="D450" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7658,10 +8147,10 @@
         <v>0</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="C451" s="0" t="s">
-        <v>67</v>
+        <v>285</v>
       </c>
       <c r="D451" s="0" t="n">
         <v>0</v>
@@ -7672,10 +8161,10 @@
         <v>0</v>
       </c>
       <c r="B452" s="0" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="C452" s="0" t="s">
-        <v>153</v>
+        <v>411</v>
       </c>
       <c r="D452" s="0" t="n">
         <v>0</v>
@@ -7686,10 +8175,13 @@
         <v>0</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="C453" s="0" t="s">
-        <v>408</v>
+        <v>140</v>
+      </c>
+      <c r="D453" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7697,10 +8189,13 @@
         <v>0</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="C454" s="0" t="s">
-        <v>409</v>
+        <v>232</v>
+      </c>
+      <c r="D454" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7708,10 +8203,13 @@
         <v>0</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C455" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
+      </c>
+      <c r="D455" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7719,10 +8217,13 @@
         <v>0</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C456" s="0" t="s">
-        <v>286</v>
+        <v>413</v>
+      </c>
+      <c r="D456" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7730,10 +8231,13 @@
         <v>0</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C457" s="0" t="s">
-        <v>412</v>
+        <v>338</v>
+      </c>
+      <c r="D457" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7741,10 +8245,13 @@
         <v>0</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C458" s="0" t="s">
-        <v>140</v>
+        <v>414</v>
+      </c>
+      <c r="D458" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7752,10 +8259,13 @@
         <v>0</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C459" s="0" t="s">
-        <v>232</v>
+        <v>290</v>
+      </c>
+      <c r="D459" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7763,10 +8273,13 @@
         <v>0</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C460" s="0" t="s">
-        <v>413</v>
+        <v>28</v>
+      </c>
+      <c r="D460" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7774,10 +8287,13 @@
         <v>0</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C461" s="0" t="s">
-        <v>414</v>
+        <v>38</v>
+      </c>
+      <c r="D461" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7785,10 +8301,13 @@
         <v>0</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C462" s="0" t="s">
-        <v>339</v>
+        <v>316</v>
+      </c>
+      <c r="D462" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7796,10 +8315,13 @@
         <v>0</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C463" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
+      </c>
+      <c r="D463" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7807,10 +8329,13 @@
         <v>0</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C464" s="0" t="s">
-        <v>291</v>
+        <v>418</v>
+      </c>
+      <c r="D464" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7818,10 +8343,10 @@
         <v>0</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C465" s="0" t="s">
-        <v>28</v>
+        <v>420</v>
       </c>
       <c r="D465" s="0" t="n">
         <v>1</v>
@@ -7832,13 +8357,13 @@
         <v>0</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C466" s="0" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D466" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7846,10 +8371,13 @@
         <v>0</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C467" s="0" t="s">
-        <v>317</v>
+        <v>421</v>
+      </c>
+      <c r="D467" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7857,10 +8385,13 @@
         <v>0</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C468" s="0" t="s">
-        <v>418</v>
+        <v>422</v>
+      </c>
+      <c r="D468" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7868,10 +8399,13 @@
         <v>0</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C469" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
+      </c>
+      <c r="D469" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7879,10 +8413,13 @@
         <v>0</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C470" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
+      </c>
+      <c r="D470" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7890,10 +8427,13 @@
         <v>0</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C471" s="0" t="s">
-        <v>3</v>
+        <v>426</v>
+      </c>
+      <c r="D471" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7901,10 +8441,13 @@
         <v>0</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C472" s="0" t="s">
-        <v>422</v>
+        <v>428</v>
+      </c>
+      <c r="D472" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7912,10 +8455,13 @@
         <v>0</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C473" s="0" t="s">
-        <v>423</v>
+        <v>429</v>
+      </c>
+      <c r="D473" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7923,10 +8469,13 @@
         <v>0</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C474" s="0" t="s">
-        <v>424</v>
+        <v>430</v>
+      </c>
+      <c r="D474" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7934,10 +8483,13 @@
         <v>0</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C475" s="0" t="s">
-        <v>426</v>
+        <v>21</v>
+      </c>
+      <c r="D475" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7945,10 +8497,13 @@
         <v>0</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C476" s="0" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="D476" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7956,10 +8511,13 @@
         <v>0</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C477" s="0" t="s">
-        <v>429</v>
+        <v>425</v>
+      </c>
+      <c r="D477" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7967,10 +8525,13 @@
         <v>0</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C478" s="0" t="s">
-        <v>430</v>
+        <v>286</v>
+      </c>
+      <c r="D478" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7978,10 +8539,13 @@
         <v>0</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C479" s="0" t="s">
-        <v>431</v>
+        <v>151</v>
+      </c>
+      <c r="D479" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7989,13 +8553,13 @@
         <v>0</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C480" s="0" t="s">
-        <v>21</v>
+        <v>433</v>
       </c>
       <c r="D480" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8003,10 +8567,13 @@
         <v>0</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C481" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
+      </c>
+      <c r="D481" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8014,10 +8581,13 @@
         <v>0</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C482" s="0" t="s">
-        <v>426</v>
+        <v>435</v>
+      </c>
+      <c r="D482" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8025,10 +8595,13 @@
         <v>0</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C483" s="0" t="s">
-        <v>287</v>
+        <v>436</v>
+      </c>
+      <c r="D483" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8036,13 +8609,13 @@
         <v>0</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C484" s="0" t="s">
-        <v>151</v>
+        <v>437</v>
       </c>
       <c r="D484" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8050,10 +8623,13 @@
         <v>0</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C485" s="0" t="s">
-        <v>434</v>
+        <v>439</v>
+      </c>
+      <c r="D485" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8061,10 +8637,13 @@
         <v>0</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C486" s="0" t="s">
-        <v>435</v>
+        <v>440</v>
+      </c>
+      <c r="D486" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8072,10 +8651,13 @@
         <v>0</v>
       </c>
       <c r="B487" s="0" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C487" s="0" t="s">
-        <v>436</v>
+        <v>339</v>
+      </c>
+      <c r="D487" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8083,10 +8665,13 @@
         <v>0</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C488" s="0" t="s">
-        <v>437</v>
+        <v>222</v>
+      </c>
+      <c r="D488" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8094,10 +8679,13 @@
         <v>0</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C489" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
+      </c>
+      <c r="D489" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8105,10 +8693,13 @@
         <v>0</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C490" s="0" t="s">
-        <v>440</v>
+        <v>69</v>
+      </c>
+      <c r="D490" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8116,10 +8707,13 @@
         <v>0</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C491" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
+      </c>
+      <c r="D491" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8127,10 +8721,13 @@
         <v>0</v>
       </c>
       <c r="B492" s="0" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C492" s="0" t="s">
-        <v>340</v>
+        <v>181</v>
+      </c>
+      <c r="D492" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8138,10 +8735,13 @@
         <v>0</v>
       </c>
       <c r="B493" s="0" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C493" s="0" t="s">
-        <v>222</v>
+        <v>445</v>
+      </c>
+      <c r="D493" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8149,10 +8749,13 @@
         <v>0</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C494" s="0" t="s">
-        <v>442</v>
+        <v>447</v>
+      </c>
+      <c r="D494" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8160,10 +8763,10 @@
         <v>0</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C495" s="0" t="s">
-        <v>69</v>
+        <v>448</v>
       </c>
       <c r="D495" s="0" t="n">
         <v>0</v>
@@ -8174,10 +8777,13 @@
         <v>0</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C496" s="0" t="s">
-        <v>444</v>
+        <v>450</v>
+      </c>
+      <c r="D496" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8185,13 +8791,13 @@
         <v>0</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C497" s="0" t="s">
-        <v>181</v>
+        <v>440</v>
       </c>
       <c r="D497" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8199,10 +8805,13 @@
         <v>0</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C498" s="0" t="s">
-        <v>446</v>
+        <v>403</v>
+      </c>
+      <c r="D498" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8210,10 +8819,13 @@
         <v>0</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C499" s="0" t="s">
-        <v>448</v>
+        <v>404</v>
+      </c>
+      <c r="D499" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8221,10 +8833,13 @@
         <v>0</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C500" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
+      </c>
+      <c r="D500" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8232,10 +8847,13 @@
         <v>0</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C501" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
+      </c>
+      <c r="D501" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8243,10 +8861,13 @@
         <v>0</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C502" s="0" t="s">
-        <v>441</v>
+        <v>455</v>
+      </c>
+      <c r="D502" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8257,7 +8878,10 @@
         <v>452</v>
       </c>
       <c r="C503" s="0" t="s">
-        <v>404</v>
+        <v>456</v>
+      </c>
+      <c r="D503" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8265,10 +8889,13 @@
         <v>0</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C504" s="0" t="s">
-        <v>405</v>
+        <v>5</v>
+      </c>
+      <c r="D504" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8276,10 +8903,13 @@
         <v>0</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C505" s="0" t="s">
-        <v>454</v>
+        <v>458</v>
+      </c>
+      <c r="D505" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8287,10 +8917,13 @@
         <v>0</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C506" s="0" t="s">
-        <v>455</v>
+        <v>2</v>
+      </c>
+      <c r="D506" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8298,10 +8931,13 @@
         <v>0</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C507" s="0" t="s">
-        <v>455</v>
+        <v>423</v>
+      </c>
+      <c r="D507" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8309,10 +8945,13 @@
         <v>0</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C508" s="0" t="s">
-        <v>456</v>
+        <v>448</v>
+      </c>
+      <c r="D508" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8320,10 +8959,13 @@
         <v>0</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C509" s="0" t="s">
-        <v>457</v>
+        <v>461</v>
+      </c>
+      <c r="D509" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8331,13 +8973,13 @@
         <v>0</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C510" s="0" t="s">
-        <v>5</v>
+        <v>315</v>
       </c>
       <c r="D510" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8345,10 +8987,13 @@
         <v>0</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C511" s="0" t="s">
-        <v>459</v>
+        <v>463</v>
+      </c>
+      <c r="D511" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8356,10 +9001,10 @@
         <v>0</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C512" s="0" t="s">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="D512" s="0" t="n">
         <v>0</v>
@@ -8370,10 +9015,13 @@
         <v>0</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C513" s="0" t="s">
-        <v>424</v>
+        <v>377</v>
+      </c>
+      <c r="D513" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8381,10 +9029,13 @@
         <v>0</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C514" s="0" t="s">
-        <v>449</v>
+        <v>465</v>
+      </c>
+      <c r="D514" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8392,10 +9043,13 @@
         <v>0</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C515" s="0" t="s">
-        <v>462</v>
+        <v>466</v>
+      </c>
+      <c r="D515" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8403,10 +9057,13 @@
         <v>0</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C516" s="0" t="s">
-        <v>316</v>
+        <v>468</v>
+      </c>
+      <c r="D516" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8414,10 +9071,13 @@
         <v>0</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C517" s="0" t="s">
-        <v>464</v>
+        <v>469</v>
+      </c>
+      <c r="D517" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8425,10 +9085,13 @@
         <v>0</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C518" s="0" t="s">
-        <v>377</v>
+        <v>223</v>
+      </c>
+      <c r="D518" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8436,10 +9099,13 @@
         <v>0</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C519" s="0" t="s">
-        <v>378</v>
+        <v>470</v>
+      </c>
+      <c r="D519" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8447,10 +9113,13 @@
         <v>0</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C520" s="0" t="s">
-        <v>466</v>
+        <v>223</v>
+      </c>
+      <c r="D520" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8458,10 +9127,13 @@
         <v>0</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C521" s="0" t="s">
-        <v>467</v>
+        <v>163</v>
+      </c>
+      <c r="D521" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8469,10 +9141,13 @@
         <v>0</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C522" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
+      </c>
+      <c r="D522" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8480,10 +9155,13 @@
         <v>0</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C523" s="0" t="s">
-        <v>470</v>
+        <v>473</v>
+      </c>
+      <c r="D523" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8491,13 +9169,13 @@
         <v>0</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C524" s="0" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="D524" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8505,10 +9183,13 @@
         <v>0</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C525" s="0" t="s">
-        <v>471</v>
+        <v>474</v>
+      </c>
+      <c r="D525" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8516,10 +9197,10 @@
         <v>0</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C526" s="0" t="s">
-        <v>223</v>
+        <v>441</v>
       </c>
       <c r="D526" s="0" t="n">
         <v>0</v>
@@ -8530,10 +9211,10 @@
         <v>0</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C527" s="0" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="D527" s="0" t="n">
         <v>0</v>
@@ -8544,10 +9225,10 @@
         <v>0</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C528" s="0" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D528" s="0" t="n">
         <v>0</v>
@@ -8558,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C529" s="0" t="s">
-        <v>474</v>
+        <v>72</v>
       </c>
       <c r="D529" s="0" t="n">
         <v>0</v>
@@ -8572,13 +9253,13 @@
         <v>0</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C530" s="0" t="s">
-        <v>154</v>
+        <v>478</v>
       </c>
       <c r="D530" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8586,10 +9267,10 @@
         <v>0</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C531" s="0" t="s">
-        <v>475</v>
+        <v>60</v>
       </c>
       <c r="D531" s="0" t="n">
         <v>0</v>
@@ -8600,10 +9281,10 @@
         <v>0</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C532" s="0" t="s">
-        <v>442</v>
+        <v>53</v>
       </c>
       <c r="D532" s="0" t="n">
         <v>0</v>
@@ -8614,10 +9295,13 @@
         <v>0</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C533" s="0" t="s">
-        <v>477</v>
+        <v>127</v>
+      </c>
+      <c r="D533" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8625,10 +9309,13 @@
         <v>0</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C534" s="0" t="s">
-        <v>478</v>
+        <v>481</v>
+      </c>
+      <c r="D534" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8636,13 +9323,13 @@
         <v>0</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C535" s="0" t="s">
-        <v>39</v>
+        <v>483</v>
       </c>
       <c r="D535" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8650,10 +9337,10 @@
         <v>0</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C536" s="0" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D536" s="0" t="n">
         <v>0</v>
@@ -8664,10 +9351,10 @@
         <v>0</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C537" s="0" t="s">
-        <v>72</v>
+        <v>486</v>
       </c>
       <c r="D537" s="0" t="n">
         <v>0</v>
@@ -8678,10 +9365,13 @@
         <v>0</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C538" s="0" t="s">
-        <v>482</v>
+        <v>487</v>
+      </c>
+      <c r="D538" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8689,13 +9379,13 @@
         <v>0</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C539" s="0" t="s">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="D539" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8703,10 +9393,10 @@
         <v>0</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C540" s="0" t="s">
-        <v>53</v>
+        <v>205</v>
       </c>
       <c r="D540" s="0" t="n">
         <v>0</v>
@@ -8717,10 +9407,13 @@
         <v>0</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C541" s="0" t="s">
-        <v>127</v>
+        <v>488</v>
+      </c>
+      <c r="D541" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8728,10 +9421,13 @@
         <v>0</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C542" s="0" t="s">
-        <v>485</v>
+        <v>184</v>
+      </c>
+      <c r="D542" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8739,10 +9435,13 @@
         <v>0</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C543" s="0" t="s">
-        <v>487</v>
+        <v>370</v>
+      </c>
+      <c r="D543" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8750,10 +9449,13 @@
         <v>0</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C544" s="0" t="s">
-        <v>488</v>
+        <v>371</v>
+      </c>
+      <c r="D544" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8764,7 +9466,10 @@
         <v>489</v>
       </c>
       <c r="C545" s="0" t="s">
-        <v>490</v>
+        <v>343</v>
+      </c>
+      <c r="D545" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8775,7 +9480,10 @@
         <v>489</v>
       </c>
       <c r="C546" s="0" t="s">
-        <v>491</v>
+        <v>46</v>
+      </c>
+      <c r="D546" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8783,10 +9491,13 @@
         <v>0</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C547" s="0" t="s">
-        <v>199</v>
+        <v>273</v>
+      </c>
+      <c r="D547" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8794,10 +9505,13 @@
         <v>0</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C548" s="0" t="s">
-        <v>205</v>
+        <v>275</v>
+      </c>
+      <c r="D548" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8805,10 +9519,13 @@
         <v>0</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C549" s="0" t="s">
-        <v>492</v>
+        <v>491</v>
+      </c>
+      <c r="D549" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8816,10 +9533,13 @@
         <v>0</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C550" s="0" t="s">
-        <v>184</v>
+        <v>326</v>
+      </c>
+      <c r="D550" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8827,10 +9547,13 @@
         <v>0</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C551" s="0" t="s">
-        <v>371</v>
+        <v>493</v>
+      </c>
+      <c r="D551" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8838,10 +9561,13 @@
         <v>0</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C552" s="0" t="s">
-        <v>372</v>
+        <v>494</v>
+      </c>
+      <c r="D552" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8849,10 +9575,13 @@
         <v>0</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C553" s="0" t="s">
-        <v>344</v>
+        <v>496</v>
+      </c>
+      <c r="D553" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8860,10 +9589,10 @@
         <v>0</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C554" s="0" t="s">
-        <v>46</v>
+        <v>497</v>
       </c>
       <c r="D554" s="0" t="n">
         <v>0</v>
@@ -8874,10 +9603,13 @@
         <v>0</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C555" s="0" t="s">
-        <v>274</v>
+        <v>499</v>
+      </c>
+      <c r="D555" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8885,10 +9617,13 @@
         <v>0</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C556" s="0" t="s">
-        <v>276</v>
+        <v>500</v>
+      </c>
+      <c r="D556" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8896,10 +9631,13 @@
         <v>0</v>
       </c>
       <c r="B557" s="0" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C557" s="0" t="s">
-        <v>495</v>
+        <v>108</v>
+      </c>
+      <c r="D557" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8907,10 +9645,10 @@
         <v>0</v>
       </c>
       <c r="B558" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C558" s="0" t="s">
-        <v>327</v>
+        <v>423</v>
       </c>
       <c r="D558" s="0" t="n">
         <v>0</v>
@@ -8921,10 +9659,10 @@
         <v>0</v>
       </c>
       <c r="B559" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C559" s="0" t="s">
-        <v>497</v>
+        <v>436</v>
       </c>
       <c r="D559" s="0" t="n">
         <v>0</v>
@@ -8935,13 +9673,13 @@
         <v>0</v>
       </c>
       <c r="B560" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C560" s="0" t="s">
-        <v>498</v>
+        <v>395</v>
       </c>
       <c r="D560" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8949,10 +9687,13 @@
         <v>0</v>
       </c>
       <c r="B561" s="0" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C561" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
+      </c>
+      <c r="D561" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8960,10 +9701,13 @@
         <v>0</v>
       </c>
       <c r="B562" s="0" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C562" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
+      </c>
+      <c r="D562" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8971,10 +9715,13 @@
         <v>0</v>
       </c>
       <c r="B563" s="0" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C563" s="0" t="s">
-        <v>503</v>
+        <v>61</v>
+      </c>
+      <c r="D563" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8982,10 +9729,13 @@
         <v>0</v>
       </c>
       <c r="B564" s="0" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C564" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
+      </c>
+      <c r="D564" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8993,10 +9743,13 @@
         <v>0</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C565" s="0" t="s">
-        <v>108</v>
+        <v>504</v>
+      </c>
+      <c r="D565" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9004,10 +9757,13 @@
         <v>0</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C566" s="0" t="s">
-        <v>424</v>
+        <v>505</v>
+      </c>
+      <c r="D566" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9015,10 +9771,13 @@
         <v>0</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C567" s="0" t="s">
-        <v>437</v>
+        <v>506</v>
+      </c>
+      <c r="D567" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9026,10 +9785,13 @@
         <v>0</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C568" s="0" t="s">
-        <v>396</v>
+        <v>320</v>
+      </c>
+      <c r="D568" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9037,10 +9799,13 @@
         <v>0</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C569" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
+      </c>
+      <c r="D569" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9048,10 +9813,13 @@
         <v>0</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C570" s="0" t="s">
-        <v>506</v>
+        <v>510</v>
+      </c>
+      <c r="D570" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9059,13 +9827,13 @@
         <v>0</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C571" s="0" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="D571" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9073,10 +9841,13 @@
         <v>0</v>
       </c>
       <c r="B572" s="0" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C572" s="0" t="s">
-        <v>507</v>
+        <v>2</v>
+      </c>
+      <c r="D572" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9084,10 +9855,13 @@
         <v>0</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C573" s="0" t="s">
-        <v>508</v>
+        <v>511</v>
+      </c>
+      <c r="D573" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9095,10 +9869,13 @@
         <v>0</v>
       </c>
       <c r="B574" s="0" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C574" s="0" t="s">
-        <v>509</v>
+        <v>395</v>
+      </c>
+      <c r="D574" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9106,10 +9883,13 @@
         <v>0</v>
       </c>
       <c r="B575" s="0" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="C575" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
+      </c>
+      <c r="D575" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9117,10 +9897,10 @@
         <v>0</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C576" s="0" t="s">
-        <v>321</v>
+        <v>514</v>
       </c>
       <c r="D576" s="0" t="n">
         <v>0</v>
@@ -9131,10 +9911,10 @@
         <v>0</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C577" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D577" s="0" t="n">
         <v>0</v>
@@ -9145,10 +9925,13 @@
         <v>0</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C578" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
+      </c>
+      <c r="D578" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9156,10 +9939,13 @@
         <v>0</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C579" s="0" t="s">
-        <v>159</v>
+        <v>329</v>
+      </c>
+      <c r="D579" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9167,10 +9953,10 @@
         <v>0</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C580" s="0" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D580" s="0" t="n">
         <v>0</v>
@@ -9181,10 +9967,13 @@
         <v>0</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C581" s="0" t="s">
-        <v>515</v>
+        <v>42</v>
+      </c>
+      <c r="D581" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9192,10 +9981,13 @@
         <v>0</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C582" s="0" t="s">
-        <v>396</v>
+        <v>517</v>
+      </c>
+      <c r="D582" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9203,13 +9995,13 @@
         <v>0</v>
       </c>
       <c r="B583" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C583" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D583" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9217,13 +10009,13 @@
         <v>0</v>
       </c>
       <c r="B584" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C584" s="0" t="s">
-        <v>518</v>
+        <v>226</v>
       </c>
       <c r="D584" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9231,13 +10023,13 @@
         <v>0</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C585" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D585" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9245,13 +10037,13 @@
         <v>0</v>
       </c>
       <c r="B586" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C586" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D586" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9259,10 +10051,10 @@
         <v>0</v>
       </c>
       <c r="B587" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C587" s="0" t="s">
-        <v>330</v>
+        <v>522</v>
       </c>
       <c r="D587" s="0" t="n">
         <v>0</v>
@@ -9273,10 +10065,13 @@
         <v>0</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C588" s="0" t="s">
-        <v>83</v>
+        <v>523</v>
+      </c>
+      <c r="D588" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9284,13 +10079,13 @@
         <v>0</v>
       </c>
       <c r="B589" s="0" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C589" s="0" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D589" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9298,10 +10093,13 @@
         <v>0</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C590" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
+      </c>
+      <c r="D590" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9309,10 +10107,13 @@
         <v>0</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C591" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
+      </c>
+      <c r="D591" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9320,10 +10121,13 @@
         <v>0</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C592" s="0" t="s">
-        <v>226</v>
+        <v>173</v>
+      </c>
+      <c r="D592" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9331,10 +10135,13 @@
         <v>0</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C593" s="0" t="s">
-        <v>524</v>
+        <v>188</v>
+      </c>
+      <c r="D593" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9342,10 +10149,13 @@
         <v>0</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C594" s="0" t="s">
-        <v>525</v>
+        <v>189</v>
+      </c>
+      <c r="D594" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9353,21 +10163,27 @@
         <v>0</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C595" s="0" t="s">
         <v>526</v>
       </c>
+      <c r="D595" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C596" s="0" t="s">
-        <v>527</v>
+        <v>374</v>
+      </c>
+      <c r="D596" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9375,10 +10191,13 @@
         <v>0</v>
       </c>
       <c r="B597" s="0" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C597" s="0" t="s">
-        <v>80</v>
+        <v>202</v>
+      </c>
+      <c r="D597" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9386,10 +10205,13 @@
         <v>0</v>
       </c>
       <c r="B598" s="0" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C598" s="0" t="s">
-        <v>528</v>
+        <v>243</v>
+      </c>
+      <c r="D598" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9397,10 +10219,13 @@
         <v>0</v>
       </c>
       <c r="B599" s="0" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C599" s="0" t="s">
-        <v>529</v>
+        <v>38</v>
+      </c>
+      <c r="D599" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9408,10 +10233,13 @@
         <v>0</v>
       </c>
       <c r="B600" s="0" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C600" s="0" t="s">
-        <v>173</v>
+        <v>529</v>
+      </c>
+      <c r="D600" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9419,13 +10247,13 @@
         <v>0</v>
       </c>
       <c r="B601" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="C601" s="0" t="s">
-        <v>188</v>
+        <v>531</v>
       </c>
       <c r="D601" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9433,13 +10261,13 @@
         <v>0</v>
       </c>
       <c r="B602" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="C602" s="0" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="D602" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9447,10 +10275,13 @@
         <v>0</v>
       </c>
       <c r="B603" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="C603" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
+      </c>
+      <c r="D603" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9458,10 +10289,13 @@
         <v>0</v>
       </c>
       <c r="B604" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C604" s="0" t="s">
-        <v>375</v>
+        <v>533</v>
+      </c>
+      <c r="D604" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9469,13 +10303,13 @@
         <v>0</v>
       </c>
       <c r="B605" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C605" s="0" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D605" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9483,10 +10317,13 @@
         <v>0</v>
       </c>
       <c r="B606" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C606" s="0" t="s">
-        <v>244</v>
+        <v>534</v>
+      </c>
+      <c r="D606" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9494,10 +10331,10 @@
         <v>0</v>
       </c>
       <c r="B607" s="0" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C607" s="0" t="s">
-        <v>38</v>
+        <v>535</v>
       </c>
       <c r="D607" s="0" t="n">
         <v>0</v>
@@ -9508,10 +10345,10 @@
         <v>0</v>
       </c>
       <c r="B608" s="0" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C608" s="0" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D608" s="0" t="n">
         <v>0</v>
@@ -9522,10 +10359,10 @@
         <v>0</v>
       </c>
       <c r="B609" s="0" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C609" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D609" s="0" t="n">
         <v>0</v>
@@ -9536,10 +10373,10 @@
         <v>0</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C610" s="0" t="s">
-        <v>87</v>
+        <v>538</v>
       </c>
       <c r="D610" s="0" t="n">
         <v>0</v>
@@ -9550,10 +10387,10 @@
         <v>0</v>
       </c>
       <c r="B611" s="0" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C611" s="0" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D611" s="0" t="n">
         <v>0</v>
@@ -9564,10 +10401,10 @@
         <v>0</v>
       </c>
       <c r="B612" s="0" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C612" s="0" t="s">
-        <v>537</v>
+        <v>154</v>
       </c>
       <c r="D612" s="0" t="n">
         <v>0</v>
@@ -9578,10 +10415,10 @@
         <v>0</v>
       </c>
       <c r="B613" s="0" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C613" s="0" t="s">
-        <v>177</v>
+        <v>541</v>
       </c>
       <c r="D613" s="0" t="n">
         <v>0</v>
@@ -9592,10 +10429,10 @@
         <v>0</v>
       </c>
       <c r="B614" s="0" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C614" s="0" t="s">
-        <v>538</v>
+        <v>22</v>
       </c>
       <c r="D614" s="0" t="n">
         <v>0</v>
@@ -9606,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="B615" s="0" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C615" s="0" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D615" s="0" t="n">
         <v>0</v>
@@ -9620,10 +10457,10 @@
         <v>0</v>
       </c>
       <c r="B616" s="0" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C616" s="0" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D616" s="0" t="n">
         <v>0</v>
@@ -9634,10 +10471,10 @@
         <v>0</v>
       </c>
       <c r="B617" s="0" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C617" s="0" t="s">
-        <v>541</v>
+        <v>206</v>
       </c>
       <c r="D617" s="0" t="n">
         <v>0</v>
@@ -9648,10 +10485,10 @@
         <v>0</v>
       </c>
       <c r="B618" s="0" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C618" s="0" t="s">
-        <v>542</v>
+        <v>46</v>
       </c>
       <c r="D618" s="0" t="n">
         <v>0</v>
@@ -9662,10 +10499,10 @@
         <v>0</v>
       </c>
       <c r="B619" s="0" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C619" s="0" t="s">
-        <v>543</v>
+        <v>47</v>
       </c>
       <c r="D619" s="0" t="n">
         <v>0</v>
@@ -9676,10 +10513,10 @@
         <v>0</v>
       </c>
       <c r="B620" s="0" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="C620" s="0" t="s">
-        <v>154</v>
+        <v>385</v>
       </c>
       <c r="D620" s="0" t="n">
         <v>0</v>
@@ -9693,7 +10530,10 @@
         <v>544</v>
       </c>
       <c r="C621" s="0" t="s">
-        <v>545</v>
+        <v>208</v>
+      </c>
+      <c r="D621" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9701,10 +10541,10 @@
         <v>0</v>
       </c>
       <c r="B622" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C622" s="0" t="s">
-        <v>22</v>
+        <v>546</v>
       </c>
       <c r="D622" s="0" t="n">
         <v>0</v>
@@ -9715,10 +10555,13 @@
         <v>0</v>
       </c>
       <c r="B623" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C623" s="0" t="s">
-        <v>546</v>
+        <v>339</v>
+      </c>
+      <c r="D623" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9726,10 +10569,13 @@
         <v>0</v>
       </c>
       <c r="B624" s="0" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C624" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
+      </c>
+      <c r="D624" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9737,10 +10583,13 @@
         <v>0</v>
       </c>
       <c r="B625" s="0" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C625" s="0" t="s">
-        <v>206</v>
+        <v>417</v>
+      </c>
+      <c r="D625" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9748,10 +10597,10 @@
         <v>0</v>
       </c>
       <c r="B626" s="0" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="C626" s="0" t="s">
-        <v>46</v>
+        <v>550</v>
       </c>
       <c r="D626" s="0" t="n">
         <v>0</v>
@@ -9762,13 +10611,13 @@
         <v>0</v>
       </c>
       <c r="B627" s="0" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="C627" s="0" t="s">
-        <v>47</v>
+        <v>551</v>
       </c>
       <c r="D627" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9776,10 +10625,13 @@
         <v>0</v>
       </c>
       <c r="B628" s="0" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C628" s="0" t="s">
-        <v>386</v>
+        <v>553</v>
+      </c>
+      <c r="D628" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9787,13 +10639,13 @@
         <v>0</v>
       </c>
       <c r="B629" s="0" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C629" s="0" t="s">
-        <v>208</v>
+        <v>373</v>
       </c>
       <c r="D629" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9801,10 +10653,10 @@
         <v>0</v>
       </c>
       <c r="B630" s="0" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C630" s="0" t="s">
-        <v>550</v>
+        <v>417</v>
       </c>
       <c r="D630" s="0" t="n">
         <v>0</v>
@@ -9815,10 +10667,10 @@
         <v>0</v>
       </c>
       <c r="B631" s="0" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C631" s="0" t="s">
-        <v>340</v>
+        <v>555</v>
       </c>
       <c r="D631" s="0" t="n">
         <v>0</v>
@@ -9829,10 +10681,13 @@
         <v>0</v>
       </c>
       <c r="B632" s="0" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C632" s="0" t="s">
-        <v>552</v>
+        <v>557</v>
+      </c>
+      <c r="D632" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9840,10 +10695,13 @@
         <v>0</v>
       </c>
       <c r="B633" s="0" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C633" s="0" t="s">
-        <v>418</v>
+        <v>201</v>
+      </c>
+      <c r="D633" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9851,10 +10709,13 @@
         <v>0</v>
       </c>
       <c r="B634" s="0" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C634" s="0" t="s">
-        <v>554</v>
+        <v>439</v>
+      </c>
+      <c r="D634" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9862,10 +10723,13 @@
         <v>0</v>
       </c>
       <c r="B635" s="0" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C635" s="0" t="s">
-        <v>555</v>
+        <v>270</v>
+      </c>
+      <c r="D635" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9873,10 +10737,13 @@
         <v>0</v>
       </c>
       <c r="B636" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C636" s="0" t="s">
-        <v>557</v>
+        <v>202</v>
+      </c>
+      <c r="D636" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9884,10 +10751,13 @@
         <v>0</v>
       </c>
       <c r="B637" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C637" s="0" t="s">
-        <v>374</v>
+        <v>243</v>
+      </c>
+      <c r="D637" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9895,10 +10765,13 @@
         <v>0</v>
       </c>
       <c r="B638" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C638" s="0" t="s">
-        <v>418</v>
+        <v>541</v>
+      </c>
+      <c r="D638" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9906,10 +10779,13 @@
         <v>0</v>
       </c>
       <c r="B639" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C639" s="0" t="s">
-        <v>559</v>
+        <v>436</v>
+      </c>
+      <c r="D639" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9917,10 +10793,13 @@
         <v>0</v>
       </c>
       <c r="B640" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C640" s="0" t="s">
-        <v>561</v>
+        <v>41</v>
+      </c>
+      <c r="D640" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9928,13 +10807,13 @@
         <v>0</v>
       </c>
       <c r="B641" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="C641" s="0" t="s">
         <v>560</v>
       </c>
-      <c r="C641" s="0" t="s">
-        <v>201</v>
-      </c>
       <c r="D641" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9942,10 +10821,13 @@
         <v>0</v>
       </c>
       <c r="B642" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C642" s="0" t="s">
-        <v>440</v>
+        <v>561</v>
+      </c>
+      <c r="D642" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9956,7 +10838,10 @@
         <v>562</v>
       </c>
       <c r="C643" s="0" t="s">
-        <v>271</v>
+        <v>487</v>
+      </c>
+      <c r="D643" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9967,10 +10852,10 @@
         <v>562</v>
       </c>
       <c r="C644" s="0" t="s">
-        <v>202</v>
+        <v>563</v>
       </c>
       <c r="D644" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9981,7 +10866,10 @@
         <v>562</v>
       </c>
       <c r="C645" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="D645" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9989,10 +10877,10 @@
         <v>0</v>
       </c>
       <c r="B646" s="0" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C646" s="0" t="s">
-        <v>545</v>
+        <v>244</v>
       </c>
       <c r="D646" s="0" t="n">
         <v>0</v>
@@ -10003,13 +10891,13 @@
         <v>0</v>
       </c>
       <c r="B647" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C647" s="0" t="s">
-        <v>437</v>
+        <v>254</v>
       </c>
       <c r="D647" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10017,13 +10905,13 @@
         <v>0</v>
       </c>
       <c r="B648" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C648" s="0" t="s">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="D648" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10031,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="B649" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C649" s="0" t="s">
-        <v>564</v>
+        <v>208</v>
       </c>
       <c r="D649" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10045,10 +10933,10 @@
         <v>0</v>
       </c>
       <c r="B650" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C650" s="0" t="s">
-        <v>565</v>
+        <v>235</v>
       </c>
       <c r="D650" s="0" t="n">
         <v>0</v>
@@ -10059,10 +10947,13 @@
         <v>0</v>
       </c>
       <c r="B651" s="0" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C651" s="0" t="s">
-        <v>491</v>
+        <v>63</v>
+      </c>
+      <c r="D651" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10070,10 +10961,13 @@
         <v>0</v>
       </c>
       <c r="B652" s="0" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C652" s="0" t="s">
-        <v>567</v>
+        <v>153</v>
+      </c>
+      <c r="D652" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10081,10 +10975,13 @@
         <v>0</v>
       </c>
       <c r="B653" s="0" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C653" s="0" t="s">
-        <v>244</v>
+        <v>443</v>
+      </c>
+      <c r="D653" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10092,10 +10989,13 @@
         <v>0</v>
       </c>
       <c r="B654" s="0" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C654" s="0" t="s">
-        <v>245</v>
+        <v>565</v>
+      </c>
+      <c r="D654" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10103,10 +11003,13 @@
         <v>0</v>
       </c>
       <c r="B655" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C655" s="0" t="s">
-        <v>255</v>
+        <v>567</v>
+      </c>
+      <c r="D655" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10114,10 +11017,13 @@
         <v>0</v>
       </c>
       <c r="B656" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C656" s="0" t="s">
-        <v>288</v>
+        <v>387</v>
+      </c>
+      <c r="D656" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10125,10 +11031,10 @@
         <v>0</v>
       </c>
       <c r="B657" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C657" s="0" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D657" s="0" t="n">
         <v>1</v>
@@ -10139,10 +11045,13 @@
         <v>0</v>
       </c>
       <c r="B658" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="C658" s="0" t="s">
         <v>568</v>
       </c>
-      <c r="C658" s="0" t="s">
-        <v>236</v>
+      <c r="D658" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10150,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="B659" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C659" s="0" t="s">
         <v>63</v>
@@ -10164,10 +11073,10 @@
         <v>0</v>
       </c>
       <c r="B660" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C660" s="0" t="s">
-        <v>153</v>
+        <v>569</v>
       </c>
       <c r="D660" s="0" t="n">
         <v>1</v>
@@ -10178,10 +11087,13 @@
         <v>0</v>
       </c>
       <c r="B661" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C661" s="0" t="s">
-        <v>444</v>
+        <v>571</v>
+      </c>
+      <c r="D661" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10189,10 +11101,13 @@
         <v>0</v>
       </c>
       <c r="B662" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C662" s="0" t="s">
-        <v>569</v>
+        <v>572</v>
+      </c>
+      <c r="D662" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10203,7 +11118,10 @@
         <v>570</v>
       </c>
       <c r="C663" s="0" t="s">
-        <v>571</v>
+        <v>403</v>
+      </c>
+      <c r="D663" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10214,7 +11132,10 @@
         <v>570</v>
       </c>
       <c r="C664" s="0" t="s">
-        <v>388</v>
+        <v>478</v>
+      </c>
+      <c r="D664" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10225,7 +11146,10 @@
         <v>570</v>
       </c>
       <c r="C665" s="0" t="s">
-        <v>205</v>
+        <v>363</v>
+      </c>
+      <c r="D665" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10236,115 +11160,9 @@
         <v>570</v>
       </c>
       <c r="C666" s="0" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B667" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="C667" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D667" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B668" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="C668" s="0" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B669" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="C669" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="D669" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B670" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="C670" s="0" t="s">
-        <v>576</v>
-      </c>
-      <c r="D670" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B671" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="C671" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="D671" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B672" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="C672" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="D672" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B673" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="C673" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="D673" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B674" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="C674" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D674" s="0" t="n">
+      <c r="D666" s="0" t="n">
         <v>0</v>
       </c>
     </row>
